--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s3_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s3_mean_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1999998092651367</v>
+        <v>0.1570000648498535</v>
       </c>
     </row>
     <row r="5">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.10555953090579</v>
+        <v>33.10555953090582</v>
       </c>
     </row>
     <row r="4">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.23570364914815</v>
+        <v>37.98393028943172</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.56872016525504</v>
+        <v>38.31694680553866</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>152.3990000000486</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.0190000000148</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>41.23200000000362</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>115.2100000000301</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163.3300000000638</v>
+        <v>183.6</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>163.3300000000818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>152.399000000085</v>
+        <v>183.6</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
     </row>
   </sheetData>
